--- a/фильмы.xlsx
+++ b/фильмы.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="77">
   <si>
     <t>"</t>
   </si>
@@ -28,13 +28,232 @@
   </si>
   <si>
     <t>"directorId":"</t>
+  </si>
+  <si>
+    <t>Начало</t>
+  </si>
+  <si>
+    <t>фантастика</t>
+  </si>
+  <si>
+    <t>60473fdc3f57490ea4b0ee62</t>
+  </si>
+  <si>
+    <t>Престиж</t>
+  </si>
+  <si>
+    <t>Помни</t>
+  </si>
+  <si>
+    <t>детектив</t>
+  </si>
+  <si>
+    <t>Дюнкерк</t>
+  </si>
+  <si>
+    <t>драма</t>
+  </si>
+  <si>
+    <t>Бэтмен</t>
+  </si>
+  <si>
+    <t>Довод</t>
+  </si>
+  <si>
+    <t>боевик</t>
+  </si>
+  <si>
+    <t>Бессонница</t>
+  </si>
+  <si>
+    <t>Триллер</t>
+  </si>
+  <si>
+    <t>Подмена</t>
+  </si>
+  <si>
+    <t>6047407b3f57490ea4b0ee68</t>
+  </si>
+  <si>
+    <t>Чудо на гудзоне</t>
+  </si>
+  <si>
+    <t>Снайпер</t>
+  </si>
+  <si>
+    <t>Боевик</t>
+  </si>
+  <si>
+    <t>Непрощенный</t>
+  </si>
+  <si>
+    <t>вестерн</t>
+  </si>
+  <si>
+    <t>Поезд на Париж</t>
+  </si>
+  <si>
+    <t>триллер</t>
+  </si>
+  <si>
+    <t>Аватар</t>
+  </si>
+  <si>
+    <t>604740283f57490ea4b0ee64</t>
+  </si>
+  <si>
+    <t>Бездна</t>
+  </si>
+  <si>
+    <t>Титаник</t>
+  </si>
+  <si>
+    <t>Чужие</t>
+  </si>
+  <si>
+    <t>ужасы</t>
+  </si>
+  <si>
+    <t>Терминатор</t>
+  </si>
+  <si>
+    <t>Терминатор2</t>
+  </si>
+  <si>
+    <t>Санктум</t>
+  </si>
+  <si>
+    <t>приключения</t>
+  </si>
+  <si>
+    <t>Правдивая ложь</t>
+  </si>
+  <si>
+    <t>Столетие</t>
+  </si>
+  <si>
+    <t>604740143f57490ea4b0ee63</t>
+  </si>
+  <si>
+    <t>Меланхолия</t>
+  </si>
+  <si>
+    <t>Спасение</t>
+  </si>
+  <si>
+    <t>Время дьявола</t>
+  </si>
+  <si>
+    <t>история</t>
+  </si>
+  <si>
+    <t>Гости</t>
+  </si>
+  <si>
+    <t>Доберман</t>
+  </si>
+  <si>
+    <t>604740413f57490ea4b0ee65</t>
+  </si>
+  <si>
+    <t>Ева</t>
+  </si>
+  <si>
+    <t>Необратимость</t>
+  </si>
+  <si>
+    <t>Любовь</t>
+  </si>
+  <si>
+    <t>Драма</t>
+  </si>
+  <si>
+    <t>Содомиты</t>
+  </si>
+  <si>
+    <t>взрослое</t>
+  </si>
+  <si>
+    <t>От заката до рассвета</t>
+  </si>
+  <si>
+    <t>604740533f57490ea4b0ee66</t>
+  </si>
+  <si>
+    <t>Криминальное</t>
+  </si>
+  <si>
+    <t>Омерзительные</t>
+  </si>
+  <si>
+    <t>Джанго</t>
+  </si>
+  <si>
+    <t>Убить билла</t>
+  </si>
+  <si>
+    <t>Город грехов</t>
+  </si>
+  <si>
+    <t>Нокаут</t>
+  </si>
+  <si>
+    <t>6047408c3f57490ea4b0ee69</t>
+  </si>
+  <si>
+    <t>8 подруг Ошена</t>
+  </si>
+  <si>
+    <t>Заражение</t>
+  </si>
+  <si>
+    <t>Не в себе</t>
+  </si>
+  <si>
+    <t>Милые кости</t>
+  </si>
+  <si>
+    <t>6047406a3f57490ea4b0ee67</t>
+  </si>
+  <si>
+    <t>Парк юрского периода</t>
+  </si>
+  <si>
+    <t>Назад в будущее</t>
+  </si>
+  <si>
+    <t>Гремлины</t>
+  </si>
+  <si>
+    <t>Няня</t>
+  </si>
+  <si>
+    <t>Выживший</t>
+  </si>
+  <si>
+    <t>6047409b3f57490ea4b0ee6a</t>
+  </si>
+  <si>
+    <t>Вавилон</t>
+  </si>
+  <si>
+    <t>21 грамм</t>
+  </si>
+  <si>
+    <t>Универсальный солдат</t>
+  </si>
+  <si>
+    <t>604740ad3f57490ea4b0ee6b</t>
+  </si>
+  <si>
+    <t>Красная жара</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -44,17 +263,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF333333"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <sz val="8"/>
+      <color rgb="FFFF4500"/>
+      <name val="Consolas"/>
+      <family val="3"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -78,10 +290,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -378,8 +589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C199"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29:B199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -392,7 +603,9 @@
       <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -401,6 +614,9 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
@@ -409,15 +625,23 @@
       <c r="A3" t="s">
         <v>3</v>
       </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18.75">
+    <row r="4" spans="1:3">
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -426,6 +650,9 @@
       <c r="A6" t="s">
         <v>2</v>
       </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
       <c r="C6" t="s">
         <v>0</v>
       </c>
@@ -434,15 +661,23 @@
       <c r="A7" t="s">
         <v>3</v>
       </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C7" t="s">
         <v>0</v>
       </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" s="1"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="1"/>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
       <c r="C9" t="s">
         <v>0</v>
       </c>
@@ -451,6 +686,9 @@
       <c r="A10" t="s">
         <v>2</v>
       </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
       <c r="C10" t="s">
         <v>0</v>
       </c>
@@ -459,15 +697,23 @@
       <c r="A11" t="s">
         <v>3</v>
       </c>
+      <c r="B11" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C11" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="18.75">
+    <row r="12" spans="1:3">
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
       <c r="C13" t="s">
         <v>0</v>
       </c>
@@ -476,6 +722,9 @@
       <c r="A14" t="s">
         <v>2</v>
       </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
       <c r="C14" t="s">
         <v>0</v>
       </c>
@@ -484,15 +733,23 @@
       <c r="A15" t="s">
         <v>3</v>
       </c>
+      <c r="B15" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C15" t="s">
         <v>0</v>
       </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16" s="1"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="1"/>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
       <c r="C17" t="s">
         <v>0</v>
       </c>
@@ -501,6 +758,9 @@
       <c r="A18" t="s">
         <v>2</v>
       </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
       <c r="C18" t="s">
         <v>0</v>
       </c>
@@ -509,15 +769,23 @@
       <c r="A19" t="s">
         <v>3</v>
       </c>
+      <c r="B19" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C19" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="18.75">
+    <row r="20" spans="1:3">
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="2"/>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
       <c r="C21" t="s">
         <v>0</v>
       </c>
@@ -526,6 +794,9 @@
       <c r="A22" t="s">
         <v>2</v>
       </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
       <c r="C22" t="s">
         <v>0</v>
       </c>
@@ -534,15 +805,23 @@
       <c r="A23" t="s">
         <v>3</v>
       </c>
+      <c r="B23" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C23" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="18.75">
+    <row r="24" spans="1:3">
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="2"/>
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
       <c r="C25" t="s">
         <v>0</v>
       </c>
@@ -551,6 +830,9 @@
       <c r="A26" t="s">
         <v>2</v>
       </c>
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
       <c r="C26" t="s">
         <v>0</v>
       </c>
@@ -559,15 +841,20 @@
       <c r="A27" t="s">
         <v>3</v>
       </c>
+      <c r="B27" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C27" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="18.75">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="2"/>
+      <c r="B29" t="s">
+        <v>17</v>
+      </c>
       <c r="C29" t="s">
         <v>0</v>
       </c>
@@ -576,6 +863,9 @@
       <c r="A30" t="s">
         <v>2</v>
       </c>
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
       <c r="C30" t="s">
         <v>0</v>
       </c>
@@ -584,15 +874,23 @@
       <c r="A31" t="s">
         <v>3</v>
       </c>
+      <c r="B31" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="C31" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="18.75">
+    <row r="32" spans="1:3">
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>1</v>
       </c>
-      <c r="B33" s="2"/>
+      <c r="B33" t="s">
+        <v>19</v>
+      </c>
       <c r="C33" t="s">
         <v>0</v>
       </c>
@@ -601,6 +899,9 @@
       <c r="A34" t="s">
         <v>2</v>
       </c>
+      <c r="B34" t="s">
+        <v>11</v>
+      </c>
       <c r="C34" t="s">
         <v>0</v>
       </c>
@@ -609,15 +910,23 @@
       <c r="A35" t="s">
         <v>3</v>
       </c>
+      <c r="B35" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="C35" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="18.75">
+    <row r="36" spans="1:3">
+      <c r="B36" s="1"/>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>1</v>
       </c>
-      <c r="B37" s="2"/>
+      <c r="B37" t="s">
+        <v>20</v>
+      </c>
       <c r="C37" t="s">
         <v>0</v>
       </c>
@@ -626,6 +935,9 @@
       <c r="A38" t="s">
         <v>2</v>
       </c>
+      <c r="B38" t="s">
+        <v>21</v>
+      </c>
       <c r="C38" t="s">
         <v>0</v>
       </c>
@@ -634,15 +946,23 @@
       <c r="A39" t="s">
         <v>3</v>
       </c>
+      <c r="B39" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="C39" t="s">
         <v>0</v>
       </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="B40" s="1"/>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>1</v>
       </c>
-      <c r="B41" s="1"/>
+      <c r="B41" t="s">
+        <v>22</v>
+      </c>
       <c r="C41" t="s">
         <v>0</v>
       </c>
@@ -651,6 +971,9 @@
       <c r="A42" t="s">
         <v>2</v>
       </c>
+      <c r="B42" t="s">
+        <v>23</v>
+      </c>
       <c r="C42" t="s">
         <v>0</v>
       </c>
@@ -659,15 +982,23 @@
       <c r="A43" t="s">
         <v>3</v>
       </c>
+      <c r="B43" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="C43" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="18.75">
+    <row r="44" spans="1:3">
+      <c r="B44" s="1"/>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>1</v>
       </c>
-      <c r="B45" s="2"/>
+      <c r="B45" t="s">
+        <v>24</v>
+      </c>
       <c r="C45" t="s">
         <v>0</v>
       </c>
@@ -676,6 +1007,9 @@
       <c r="A46" t="s">
         <v>2</v>
       </c>
+      <c r="B46" t="s">
+        <v>25</v>
+      </c>
       <c r="C46" t="s">
         <v>0</v>
       </c>
@@ -684,15 +1018,23 @@
       <c r="A47" t="s">
         <v>3</v>
       </c>
+      <c r="B47" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="C47" t="s">
         <v>0</v>
       </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="B48" s="1"/>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>1</v>
       </c>
-      <c r="B49" s="1"/>
+      <c r="B49" t="s">
+        <v>26</v>
+      </c>
       <c r="C49" t="s">
         <v>0</v>
       </c>
@@ -701,6 +1043,9 @@
       <c r="A50" t="s">
         <v>2</v>
       </c>
+      <c r="B50" t="s">
+        <v>5</v>
+      </c>
       <c r="C50" t="s">
         <v>0</v>
       </c>
@@ -709,15 +1054,20 @@
       <c r="A51" t="s">
         <v>3</v>
       </c>
+      <c r="B51" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="C51" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="18.75">
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
         <v>1</v>
       </c>
-      <c r="B53" s="2"/>
+      <c r="B53" t="s">
+        <v>28</v>
+      </c>
       <c r="C53" t="s">
         <v>0</v>
       </c>
@@ -726,6 +1076,9 @@
       <c r="A54" t="s">
         <v>2</v>
       </c>
+      <c r="B54" t="s">
+        <v>5</v>
+      </c>
       <c r="C54" t="s">
         <v>0</v>
       </c>
@@ -734,6 +1087,9 @@
       <c r="A55" t="s">
         <v>3</v>
       </c>
+      <c r="B55" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="C55" t="s">
         <v>0</v>
       </c>
@@ -742,7 +1098,9 @@
       <c r="A57" t="s">
         <v>1</v>
       </c>
-      <c r="B57" s="1"/>
+      <c r="B57" t="s">
+        <v>29</v>
+      </c>
       <c r="C57" t="s">
         <v>0</v>
       </c>
@@ -751,6 +1109,9 @@
       <c r="A58" t="s">
         <v>2</v>
       </c>
+      <c r="B58" t="s">
+        <v>11</v>
+      </c>
       <c r="C58" t="s">
         <v>0</v>
       </c>
@@ -759,15 +1120,20 @@
       <c r="A59" t="s">
         <v>3</v>
       </c>
+      <c r="B59" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="C59" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="18.75">
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
         <v>1</v>
       </c>
-      <c r="B61" s="2"/>
+      <c r="B61" t="s">
+        <v>30</v>
+      </c>
       <c r="C61" t="s">
         <v>0</v>
       </c>
@@ -776,6 +1142,9 @@
       <c r="A62" t="s">
         <v>2</v>
       </c>
+      <c r="B62" t="s">
+        <v>31</v>
+      </c>
       <c r="C62" t="s">
         <v>0</v>
       </c>
@@ -784,15 +1153,20 @@
       <c r="A63" t="s">
         <v>3</v>
       </c>
+      <c r="B63" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="C63" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="18.75">
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
         <v>1</v>
       </c>
-      <c r="B65" s="2"/>
+      <c r="B65" t="s">
+        <v>32</v>
+      </c>
       <c r="C65" t="s">
         <v>0</v>
       </c>
@@ -801,6 +1175,9 @@
       <c r="A66" t="s">
         <v>2</v>
       </c>
+      <c r="B66" t="s">
+        <v>14</v>
+      </c>
       <c r="C66" t="s">
         <v>0</v>
       </c>
@@ -809,15 +1186,20 @@
       <c r="A67" t="s">
         <v>3</v>
       </c>
+      <c r="B67" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="C67" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="18.75">
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
         <v>1</v>
       </c>
-      <c r="B69" s="2"/>
+      <c r="B69" t="s">
+        <v>33</v>
+      </c>
       <c r="C69" t="s">
         <v>0</v>
       </c>
@@ -826,6 +1208,9 @@
       <c r="A70" t="s">
         <v>2</v>
       </c>
+      <c r="B70" t="s">
+        <v>14</v>
+      </c>
       <c r="C70" t="s">
         <v>0</v>
       </c>
@@ -834,15 +1219,20 @@
       <c r="A71" t="s">
         <v>3</v>
       </c>
+      <c r="B71" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="C71" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="18.75">
+    <row r="73" spans="1:3">
       <c r="A73" t="s">
         <v>1</v>
       </c>
-      <c r="B73" s="2"/>
+      <c r="B73" t="s">
+        <v>34</v>
+      </c>
       <c r="C73" t="s">
         <v>0</v>
       </c>
@@ -851,6 +1241,9 @@
       <c r="A74" t="s">
         <v>2</v>
       </c>
+      <c r="B74" t="s">
+        <v>35</v>
+      </c>
       <c r="C74" t="s">
         <v>0</v>
       </c>
@@ -859,15 +1252,20 @@
       <c r="A75" t="s">
         <v>3</v>
       </c>
+      <c r="B75" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="C75" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="18.75">
+    <row r="77" spans="1:3">
       <c r="A77" t="s">
         <v>1</v>
       </c>
-      <c r="B77" s="2"/>
+      <c r="B77" t="s">
+        <v>36</v>
+      </c>
       <c r="C77" t="s">
         <v>0</v>
       </c>
@@ -876,6 +1274,9 @@
       <c r="A78" t="s">
         <v>2</v>
       </c>
+      <c r="B78" t="s">
+        <v>14</v>
+      </c>
       <c r="C78" t="s">
         <v>0</v>
       </c>
@@ -884,6 +1285,9 @@
       <c r="A79" t="s">
         <v>3</v>
       </c>
+      <c r="B79" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="C79" t="s">
         <v>0</v>
       </c>
@@ -892,7 +1296,9 @@
       <c r="A81" t="s">
         <v>1</v>
       </c>
-      <c r="B81" s="1"/>
+      <c r="B81" t="s">
+        <v>37</v>
+      </c>
       <c r="C81" t="s">
         <v>0</v>
       </c>
@@ -901,6 +1307,9 @@
       <c r="A82" t="s">
         <v>2</v>
       </c>
+      <c r="B82" t="s">
+        <v>11</v>
+      </c>
       <c r="C82" t="s">
         <v>0</v>
       </c>
@@ -909,15 +1318,20 @@
       <c r="A83" t="s">
         <v>3</v>
       </c>
+      <c r="B83" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="C83" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="18.75">
+    <row r="85" spans="1:3">
       <c r="A85" t="s">
         <v>1</v>
       </c>
-      <c r="B85" s="2"/>
+      <c r="B85" t="s">
+        <v>39</v>
+      </c>
       <c r="C85" t="s">
         <v>0</v>
       </c>
@@ -926,6 +1340,9 @@
       <c r="A86" t="s">
         <v>2</v>
       </c>
+      <c r="B86" t="s">
+        <v>11</v>
+      </c>
       <c r="C86" t="s">
         <v>0</v>
       </c>
@@ -934,6 +1351,9 @@
       <c r="A87" t="s">
         <v>3</v>
       </c>
+      <c r="B87" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="C87" t="s">
         <v>0</v>
       </c>
@@ -942,7 +1362,9 @@
       <c r="A89" t="s">
         <v>1</v>
       </c>
-      <c r="B89" s="1"/>
+      <c r="B89" t="s">
+        <v>40</v>
+      </c>
       <c r="C89" t="s">
         <v>0</v>
       </c>
@@ -951,6 +1373,9 @@
       <c r="A90" t="s">
         <v>2</v>
       </c>
+      <c r="B90" t="s">
+        <v>31</v>
+      </c>
       <c r="C90" t="s">
         <v>0</v>
       </c>
@@ -959,15 +1384,20 @@
       <c r="A91" t="s">
         <v>3</v>
       </c>
+      <c r="B91" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="C91" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="18.75">
+    <row r="93" spans="1:3">
       <c r="A93" t="s">
         <v>1</v>
       </c>
-      <c r="B93" s="2"/>
+      <c r="B93" t="s">
+        <v>41</v>
+      </c>
       <c r="C93" t="s">
         <v>0</v>
       </c>
@@ -976,6 +1406,9 @@
       <c r="A94" t="s">
         <v>2</v>
       </c>
+      <c r="B94" t="s">
+        <v>42</v>
+      </c>
       <c r="C94" t="s">
         <v>0</v>
       </c>
@@ -984,6 +1417,9 @@
       <c r="A95" t="s">
         <v>3</v>
       </c>
+      <c r="B95" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="C95" t="s">
         <v>0</v>
       </c>
@@ -992,7 +1428,9 @@
       <c r="A97" t="s">
         <v>1</v>
       </c>
-      <c r="B97" s="1"/>
+      <c r="B97" t="s">
+        <v>43</v>
+      </c>
       <c r="C97" t="s">
         <v>0</v>
       </c>
@@ -1001,6 +1439,9 @@
       <c r="A98" t="s">
         <v>2</v>
       </c>
+      <c r="B98" t="s">
+        <v>11</v>
+      </c>
       <c r="C98" t="s">
         <v>0</v>
       </c>
@@ -1009,15 +1450,20 @@
       <c r="A99" t="s">
         <v>3</v>
       </c>
+      <c r="B99" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="C99" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="18.75">
+    <row r="101" spans="1:3">
       <c r="A101" t="s">
         <v>1</v>
       </c>
-      <c r="B101" s="2"/>
+      <c r="B101" t="s">
+        <v>44</v>
+      </c>
       <c r="C101" t="s">
         <v>0</v>
       </c>
@@ -1026,6 +1472,9 @@
       <c r="A102" t="s">
         <v>2</v>
       </c>
+      <c r="B102" t="s">
+        <v>25</v>
+      </c>
       <c r="C102" t="s">
         <v>0</v>
       </c>
@@ -1034,15 +1483,20 @@
       <c r="A103" t="s">
         <v>3</v>
       </c>
+      <c r="B103" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="C103" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="18.75">
+    <row r="105" spans="1:3">
       <c r="A105" t="s">
         <v>1</v>
       </c>
-      <c r="B105" s="2"/>
+      <c r="B105" t="s">
+        <v>46</v>
+      </c>
       <c r="C105" t="s">
         <v>0</v>
       </c>
@@ -1051,6 +1505,9 @@
       <c r="A106" t="s">
         <v>2</v>
       </c>
+      <c r="B106" t="s">
+        <v>11</v>
+      </c>
       <c r="C106" t="s">
         <v>0</v>
       </c>
@@ -1059,15 +1516,20 @@
       <c r="A107" t="s">
         <v>3</v>
       </c>
+      <c r="B107" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="C107" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="18.75">
+    <row r="109" spans="1:3">
       <c r="A109" t="s">
         <v>1</v>
       </c>
-      <c r="B109" s="2"/>
+      <c r="B109" t="s">
+        <v>47</v>
+      </c>
       <c r="C109" t="s">
         <v>0</v>
       </c>
@@ -1076,6 +1538,9 @@
       <c r="A110" t="s">
         <v>2</v>
       </c>
+      <c r="B110" t="s">
+        <v>25</v>
+      </c>
       <c r="C110" t="s">
         <v>0</v>
       </c>
@@ -1084,15 +1549,20 @@
       <c r="A111" t="s">
         <v>3</v>
       </c>
+      <c r="B111" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="C111" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="18.75">
+    <row r="113" spans="1:3">
       <c r="A113" t="s">
         <v>1</v>
       </c>
-      <c r="B113" s="2"/>
+      <c r="B113" t="s">
+        <v>48</v>
+      </c>
       <c r="C113" t="s">
         <v>0</v>
       </c>
@@ -1101,6 +1571,9 @@
       <c r="A114" t="s">
         <v>2</v>
       </c>
+      <c r="B114" t="s">
+        <v>49</v>
+      </c>
       <c r="C114" t="s">
         <v>0</v>
       </c>
@@ -1109,15 +1582,20 @@
       <c r="A115" t="s">
         <v>3</v>
       </c>
+      <c r="B115" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="C115" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="18.75">
+    <row r="117" spans="1:3">
       <c r="A117" t="s">
         <v>1</v>
       </c>
-      <c r="B117" s="2"/>
+      <c r="B117" t="s">
+        <v>50</v>
+      </c>
       <c r="C117" t="s">
         <v>0</v>
       </c>
@@ -1126,6 +1604,9 @@
       <c r="A118" t="s">
         <v>2</v>
       </c>
+      <c r="B118" t="s">
+        <v>51</v>
+      </c>
       <c r="C118" t="s">
         <v>0</v>
       </c>
@@ -1134,15 +1615,23 @@
       <c r="A119" t="s">
         <v>3</v>
       </c>
+      <c r="B119" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="C119" t="s">
         <v>0</v>
       </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="B120" s="1"/>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
         <v>1</v>
       </c>
-      <c r="B121" s="1"/>
+      <c r="B121" t="s">
+        <v>52</v>
+      </c>
       <c r="C121" t="s">
         <v>0</v>
       </c>
@@ -1151,6 +1640,9 @@
       <c r="A122" t="s">
         <v>2</v>
       </c>
+      <c r="B122" t="s">
+        <v>31</v>
+      </c>
       <c r="C122" t="s">
         <v>0</v>
       </c>
@@ -1159,15 +1651,20 @@
       <c r="A123" t="s">
         <v>3</v>
       </c>
+      <c r="B123" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="C123" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="18.75">
+    <row r="125" spans="1:3">
       <c r="A125" t="s">
         <v>1</v>
       </c>
-      <c r="B125" s="2"/>
+      <c r="B125" t="s">
+        <v>54</v>
+      </c>
       <c r="C125" t="s">
         <v>0</v>
       </c>
@@ -1176,6 +1673,9 @@
       <c r="A126" t="s">
         <v>2</v>
       </c>
+      <c r="B126" t="s">
+        <v>14</v>
+      </c>
       <c r="C126" t="s">
         <v>0</v>
       </c>
@@ -1184,6 +1684,9 @@
       <c r="A127" t="s">
         <v>3</v>
       </c>
+      <c r="B127" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="C127" t="s">
         <v>0</v>
       </c>
@@ -1192,7 +1695,9 @@
       <c r="A129" t="s">
         <v>1</v>
       </c>
-      <c r="B129" s="1"/>
+      <c r="B129" t="s">
+        <v>55</v>
+      </c>
       <c r="C129" t="s">
         <v>0</v>
       </c>
@@ -1201,6 +1706,9 @@
       <c r="A130" t="s">
         <v>2</v>
       </c>
+      <c r="B130" t="s">
+        <v>14</v>
+      </c>
       <c r="C130" t="s">
         <v>0</v>
       </c>
@@ -1209,15 +1717,20 @@
       <c r="A131" t="s">
         <v>3</v>
       </c>
+      <c r="B131" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="C131" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="18.75">
+    <row r="133" spans="1:3">
       <c r="A133" t="s">
         <v>1</v>
       </c>
-      <c r="B133" s="2"/>
+      <c r="B133" t="s">
+        <v>56</v>
+      </c>
       <c r="C133" t="s">
         <v>0</v>
       </c>
@@ -1226,6 +1739,9 @@
       <c r="A134" t="s">
         <v>2</v>
       </c>
+      <c r="B134" t="s">
+        <v>14</v>
+      </c>
       <c r="C134" t="s">
         <v>0</v>
       </c>
@@ -1234,6 +1750,9 @@
       <c r="A135" t="s">
         <v>3</v>
       </c>
+      <c r="B135" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="C135" t="s">
         <v>0</v>
       </c>
@@ -1242,7 +1761,9 @@
       <c r="A137" t="s">
         <v>1</v>
       </c>
-      <c r="B137" s="1"/>
+      <c r="B137" t="s">
+        <v>57</v>
+      </c>
       <c r="C137" t="s">
         <v>0</v>
       </c>
@@ -1251,6 +1772,9 @@
       <c r="A138" t="s">
         <v>2</v>
       </c>
+      <c r="B138" t="s">
+        <v>14</v>
+      </c>
       <c r="C138" t="s">
         <v>0</v>
       </c>
@@ -1259,15 +1783,20 @@
       <c r="A139" t="s">
         <v>3</v>
       </c>
+      <c r="B139" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="C139" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="18.75">
+    <row r="141" spans="1:3">
       <c r="A141" t="s">
         <v>1</v>
       </c>
-      <c r="B141" s="2"/>
+      <c r="B141" t="s">
+        <v>58</v>
+      </c>
       <c r="C141" t="s">
         <v>0</v>
       </c>
@@ -1276,6 +1805,9 @@
       <c r="A142" t="s">
         <v>2</v>
       </c>
+      <c r="B142" t="s">
+        <v>14</v>
+      </c>
       <c r="C142" t="s">
         <v>0</v>
       </c>
@@ -1284,15 +1816,20 @@
       <c r="A143" t="s">
         <v>3</v>
       </c>
+      <c r="B143" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="C143" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="18.75">
+    <row r="145" spans="1:3">
       <c r="A145" t="s">
         <v>1</v>
       </c>
-      <c r="B145" s="2"/>
+      <c r="B145" t="s">
+        <v>59</v>
+      </c>
       <c r="C145" t="s">
         <v>0</v>
       </c>
@@ -1301,6 +1838,9 @@
       <c r="A146" t="s">
         <v>2</v>
       </c>
+      <c r="B146" t="s">
+        <v>25</v>
+      </c>
       <c r="C146" t="s">
         <v>0</v>
       </c>
@@ -1309,15 +1849,20 @@
       <c r="A147" t="s">
         <v>3</v>
       </c>
+      <c r="B147" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="C147" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="18.75">
+    <row r="149" spans="1:3">
       <c r="A149" t="s">
         <v>1</v>
       </c>
-      <c r="B149" s="2"/>
+      <c r="B149" t="s">
+        <v>61</v>
+      </c>
       <c r="C149" t="s">
         <v>0</v>
       </c>
@@ -1326,6 +1871,9 @@
       <c r="A150" t="s">
         <v>2</v>
       </c>
+      <c r="B150" t="s">
+        <v>25</v>
+      </c>
       <c r="C150" t="s">
         <v>0</v>
       </c>
@@ -1334,15 +1882,20 @@
       <c r="A151" t="s">
         <v>3</v>
       </c>
+      <c r="B151" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="C151" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="18.75">
+    <row r="153" spans="1:3">
       <c r="A153" t="s">
         <v>1</v>
       </c>
-      <c r="B153" s="2"/>
+      <c r="B153" t="s">
+        <v>62</v>
+      </c>
       <c r="C153" t="s">
         <v>0</v>
       </c>
@@ -1351,6 +1904,9 @@
       <c r="A154" t="s">
         <v>2</v>
       </c>
+      <c r="B154" t="s">
+        <v>25</v>
+      </c>
       <c r="C154" t="s">
         <v>0</v>
       </c>
@@ -1359,15 +1915,20 @@
       <c r="A155" t="s">
         <v>3</v>
       </c>
+      <c r="B155" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="C155" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="18.75">
+    <row r="157" spans="1:3">
       <c r="A157" t="s">
         <v>1</v>
       </c>
-      <c r="B157" s="2"/>
+      <c r="B157" t="s">
+        <v>63</v>
+      </c>
       <c r="C157" t="s">
         <v>0</v>
       </c>
@@ -1376,6 +1937,9 @@
       <c r="A158" t="s">
         <v>2</v>
       </c>
+      <c r="B158" t="s">
+        <v>9</v>
+      </c>
       <c r="C158" t="s">
         <v>0</v>
       </c>
@@ -1384,6 +1948,9 @@
       <c r="A159" t="s">
         <v>3</v>
       </c>
+      <c r="B159" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="C159" t="s">
         <v>0</v>
       </c>
@@ -1392,7 +1959,9 @@
       <c r="A161" t="s">
         <v>1</v>
       </c>
-      <c r="B161" s="1"/>
+      <c r="B161" t="s">
+        <v>64</v>
+      </c>
       <c r="C161" t="s">
         <v>0</v>
       </c>
@@ -1401,6 +1970,9 @@
       <c r="A162" t="s">
         <v>2</v>
       </c>
+      <c r="B162" t="s">
+        <v>25</v>
+      </c>
       <c r="C162" t="s">
         <v>0</v>
       </c>
@@ -1409,15 +1981,20 @@
       <c r="A163" t="s">
         <v>3</v>
       </c>
+      <c r="B163" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="C163" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="18.75">
+    <row r="165" spans="1:3">
       <c r="A165" t="s">
         <v>1</v>
       </c>
-      <c r="B165" s="2"/>
+      <c r="B165" t="s">
+        <v>66</v>
+      </c>
       <c r="C165" t="s">
         <v>0</v>
       </c>
@@ -1426,6 +2003,9 @@
       <c r="A166" t="s">
         <v>2</v>
       </c>
+      <c r="B166" t="s">
+        <v>5</v>
+      </c>
       <c r="C166" t="s">
         <v>0</v>
       </c>
@@ -1434,6 +2014,9 @@
       <c r="A167" t="s">
         <v>3</v>
       </c>
+      <c r="B167" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="C167" t="s">
         <v>0</v>
       </c>
@@ -1442,7 +2025,9 @@
       <c r="A169" t="s">
         <v>1</v>
       </c>
-      <c r="B169" s="1"/>
+      <c r="B169" t="s">
+        <v>67</v>
+      </c>
       <c r="C169" t="s">
         <v>0</v>
       </c>
@@ -1451,6 +2036,9 @@
       <c r="A170" t="s">
         <v>2</v>
       </c>
+      <c r="B170" t="s">
+        <v>5</v>
+      </c>
       <c r="C170" t="s">
         <v>0</v>
       </c>
@@ -1459,15 +2047,20 @@
       <c r="A171" t="s">
         <v>3</v>
       </c>
+      <c r="B171" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="C171" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="18.75">
+    <row r="173" spans="1:3">
       <c r="A173" t="s">
         <v>1</v>
       </c>
-      <c r="B173" s="2"/>
+      <c r="B173" t="s">
+        <v>68</v>
+      </c>
       <c r="C173" t="s">
         <v>0</v>
       </c>
@@ -1476,6 +2069,9 @@
       <c r="A174" t="s">
         <v>2</v>
       </c>
+      <c r="B174" t="s">
+        <v>31</v>
+      </c>
       <c r="C174" t="s">
         <v>0</v>
       </c>
@@ -1484,6 +2080,9 @@
       <c r="A175" t="s">
         <v>3</v>
       </c>
+      <c r="B175" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="C175" t="s">
         <v>0</v>
       </c>
@@ -1492,7 +2091,9 @@
       <c r="A177" t="s">
         <v>1</v>
       </c>
-      <c r="B177" s="1"/>
+      <c r="B177" t="s">
+        <v>69</v>
+      </c>
       <c r="C177" t="s">
         <v>0</v>
       </c>
@@ -1501,6 +2102,9 @@
       <c r="A178" t="s">
         <v>2</v>
       </c>
+      <c r="B178" t="s">
+        <v>31</v>
+      </c>
       <c r="C178" t="s">
         <v>0</v>
       </c>
@@ -1509,15 +2113,20 @@
       <c r="A179" t="s">
         <v>3</v>
       </c>
+      <c r="B179" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="C179" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="18.75">
+    <row r="181" spans="1:3">
       <c r="A181" t="s">
         <v>1</v>
       </c>
-      <c r="B181" s="2"/>
+      <c r="B181" t="s">
+        <v>70</v>
+      </c>
       <c r="C181" t="s">
         <v>0</v>
       </c>
@@ -1526,6 +2135,9 @@
       <c r="A182" t="s">
         <v>2</v>
       </c>
+      <c r="B182" t="s">
+        <v>23</v>
+      </c>
       <c r="C182" t="s">
         <v>0</v>
       </c>
@@ -1534,15 +2146,20 @@
       <c r="A183" t="s">
         <v>3</v>
       </c>
+      <c r="B183" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="C183" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="18.75">
+    <row r="185" spans="1:3">
       <c r="A185" t="s">
         <v>1</v>
       </c>
-      <c r="B185" s="2"/>
+      <c r="B185" t="s">
+        <v>72</v>
+      </c>
       <c r="C185" t="s">
         <v>0</v>
       </c>
@@ -1551,6 +2168,9 @@
       <c r="A186" t="s">
         <v>2</v>
       </c>
+      <c r="B186" t="s">
+        <v>11</v>
+      </c>
       <c r="C186" t="s">
         <v>0</v>
       </c>
@@ -1559,15 +2179,20 @@
       <c r="A187" t="s">
         <v>3</v>
       </c>
+      <c r="B187" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="C187" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="18.75">
+    <row r="189" spans="1:3">
       <c r="A189" t="s">
         <v>1</v>
       </c>
-      <c r="B189" s="2"/>
+      <c r="B189" t="s">
+        <v>73</v>
+      </c>
       <c r="C189" t="s">
         <v>0</v>
       </c>
@@ -1576,6 +2201,9 @@
       <c r="A190" t="s">
         <v>2</v>
       </c>
+      <c r="B190" t="s">
+        <v>25</v>
+      </c>
       <c r="C190" t="s">
         <v>0</v>
       </c>
@@ -1584,15 +2212,20 @@
       <c r="A191" t="s">
         <v>3</v>
       </c>
+      <c r="B191" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="C191" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="18.75">
+    <row r="193" spans="1:3">
       <c r="A193" t="s">
         <v>1</v>
       </c>
-      <c r="B193" s="2"/>
+      <c r="B193" t="s">
+        <v>74</v>
+      </c>
       <c r="C193" t="s">
         <v>0</v>
       </c>
@@ -1601,6 +2234,9 @@
       <c r="A194" t="s">
         <v>2</v>
       </c>
+      <c r="B194" t="s">
+        <v>14</v>
+      </c>
       <c r="C194" t="s">
         <v>0</v>
       </c>
@@ -1609,15 +2245,20 @@
       <c r="A195" t="s">
         <v>3</v>
       </c>
+      <c r="B195" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="C195" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="18.75">
+    <row r="197" spans="1:3">
       <c r="A197" t="s">
         <v>1</v>
       </c>
-      <c r="B197" s="2"/>
+      <c r="B197" t="s">
+        <v>76</v>
+      </c>
       <c r="C197" t="s">
         <v>0</v>
       </c>
@@ -1626,6 +2267,9 @@
       <c r="A198" t="s">
         <v>2</v>
       </c>
+      <c r="B198" t="s">
+        <v>14</v>
+      </c>
       <c r="C198" t="s">
         <v>0</v>
       </c>
@@ -1633,6 +2277,9 @@
     <row r="199" spans="1:3">
       <c r="A199" t="s">
         <v>3</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="C199" t="s">
         <v>0</v>
